--- a/LINE/進捗表.xlsx
+++ b/LINE/進捗表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chie\１８.副業\LINE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF2EFD0-56BD-493C-9909-16C65EC4BE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD256203-A979-43A0-A6F4-066146020520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{1BD1009C-3A70-4D15-B642-3A586ABA9F02}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>お相撲さん</t>
     <rPh sb="1" eb="3">
@@ -238,21 +238,34 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>申請</t>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>申請中</t>
     <rPh sb="0" eb="2">
       <t>シンセイ</t>
     </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>〇</t>
+    <t>販売中</t>
+    <rPh sb="0" eb="2">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,13 +313,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -365,7 +371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -378,13 +384,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -738,42 +741,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17076C5-11DF-42B4-874B-290A5BEF8BF4}">
-  <dimension ref="A2:F170"/>
+  <dimension ref="A2:G170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="10.1875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.8125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.9375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.5625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="F2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
@@ -781,28 +787,32 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -811,8 +821,9 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -821,8 +832,9 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -831,8 +843,9 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -841,8 +854,9 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -851,8 +865,9 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -861,8 +876,9 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -871,8 +887,9 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -881,8 +898,9 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -891,8 +909,9 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -901,8 +920,9 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -911,8 +931,9 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -921,8 +942,9 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -931,48 +953,55 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -981,8 +1010,9 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -991,1203 +1021,1353 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A41" s="2"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A43" s="2"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A44" s="2"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A45" s="2"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A47" s="2"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A48" s="2"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A49" s="2"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A50" s="2"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A51" s="2"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A52" s="2"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A53" s="2"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A54" s="2"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A55" s="2"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A56" s="2"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A57" s="2"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A58" s="2"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A59" s="2"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A60" s="2"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A61" s="2"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A62" s="2"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A63" s="2"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A64" s="2"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A65" s="2"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A66" s="2"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A67" s="2"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A68" s="2"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A69" s="2"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A70" s="2"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A71" s="2"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A72" s="2"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A73" s="2"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A74" s="2"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A75" s="2"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A76" s="2"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A77" s="2"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A78" s="2"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A79" s="2"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A80" s="2"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A81" s="2"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A82" s="2"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A83" s="2"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A84" s="2"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A85" s="2"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A86" s="2"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A87" s="2"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A88" s="2"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A89" s="2"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A90" s="2"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A91" s="2"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A92" s="2"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A93" s="2"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A94" s="2"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A95" s="2"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A96" s="2"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A97" s="2"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A98" s="2"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A99" s="2"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A100" s="2"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A101" s="2"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A102" s="2"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A103" s="2"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A104" s="2"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A105" s="2"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A106" s="2"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A107" s="2"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A108" s="2"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A109" s="2"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A110" s="2"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A111" s="2"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A112" s="2"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A113" s="2"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A114" s="2"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A115" s="2"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A116" s="2"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A117" s="2"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A118" s="2"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A119" s="2"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A120" s="2"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A121" s="2"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A122" s="2"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A123" s="2"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A124" s="2"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A125" s="2"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A126" s="2"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A127" s="2"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A128" s="2"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="1:6">
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A129" s="2"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="1:6">
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A130" s="2"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A131" s="2"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A132" s="2"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A133" s="2"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A134" s="2"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A135" s="2"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A136" s="2"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A137" s="2"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A138" s="2"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A139" s="2"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A140" s="2"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
-    </row>
-    <row r="141" spans="1:6">
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A141" s="2"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A142" s="2"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A143" s="2"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A144" s="2"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A145" s="2"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
-    </row>
-    <row r="146" spans="1:6">
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A146" s="2"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
-    </row>
-    <row r="147" spans="1:6">
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A147" s="2"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
-    </row>
-    <row r="148" spans="1:6">
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A148" s="2"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A149" s="2"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A150" s="2"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A151" s="2"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
-    </row>
-    <row r="152" spans="1:6">
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A152" s="2"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
-    </row>
-    <row r="153" spans="1:6">
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A153" s="2"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
-    </row>
-    <row r="154" spans="1:6">
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A154" s="2"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A155" s="2"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
-    </row>
-    <row r="156" spans="1:6">
+      <c r="G155" s="1"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A156" s="2"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
-    </row>
-    <row r="157" spans="1:6">
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A157" s="2"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A158" s="2"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
-    </row>
-    <row r="159" spans="1:6">
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A159" s="2"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
-    </row>
-    <row r="160" spans="1:6">
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A160" s="2"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
-    </row>
-    <row r="161" spans="1:6">
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A161" s="2"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
-    </row>
-    <row r="162" spans="1:6">
+      <c r="G161" s="1"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A162" s="2"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
-    </row>
-    <row r="163" spans="1:6">
+      <c r="G162" s="1"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A163" s="2"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
-    </row>
-    <row r="164" spans="1:6">
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A164" s="2"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
-    </row>
-    <row r="165" spans="1:6">
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A165" s="2"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
-    </row>
-    <row r="166" spans="1:6">
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A166" s="2"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
-    </row>
-    <row r="167" spans="1:6">
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A167" s="2"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
-    </row>
-    <row r="168" spans="1:6">
+      <c r="G167" s="1"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A168" s="2"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
-    </row>
-    <row r="169" spans="1:6">
+      <c r="G168" s="1"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A169" s="2"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
-    </row>
-    <row r="170" spans="1:6">
+      <c r="G169" s="1"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A170" s="2"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:F170" xr:uid="{0295D16A-4CB5-4B88-A4AA-73AB329C4979}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:G170" xr:uid="{0295D16A-4CB5-4B88-A4AA-73AB329C4979}">
       <formula1>"〇,×,△"</formula1>
     </dataValidation>
   </dataValidations>

--- a/LINE/進捗表.xlsx
+++ b/LINE/進捗表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chie\１８.副業\LINE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD256203-A979-43A0-A6F4-066146020520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8DA8E0-8982-44D1-A484-F89C095561E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{1BD1009C-3A70-4D15-B642-3A586ABA9F02}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>お相撲さん</t>
     <rPh sb="1" eb="3">
@@ -221,16 +221,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>文字入れ</t>
-    <rPh sb="0" eb="2">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>MAIN、TAB作成</t>
     <rPh sb="8" eb="10">
       <t>サクセイ</t>
@@ -257,6 +247,32 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字入れ【和】</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字入れ【知】</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -741,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17076C5-11DF-42B4-874B-290A5BEF8BF4}">
-  <dimension ref="A2:G170"/>
+  <dimension ref="A2:H170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -752,12 +768,12 @@
     <col min="1" max="1" width="10.1875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.8125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.9375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.5625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.0625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.9375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.5625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>19</v>
@@ -766,19 +782,22 @@
         <v>20</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -788,31 +807,35 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -822,8 +845,9 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -833,8 +857,9 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -844,8 +869,9 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -855,8 +881,9 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -866,8 +893,9 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -877,8 +905,9 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -888,8 +917,9 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -899,8 +929,9 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -910,8 +941,9 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -921,8 +953,9 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -932,8 +965,9 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -943,8 +977,9 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -954,54 +989,61 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
+        <v>22</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.6">
+        <v>22</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -1011,8 +1053,9 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -1022,8 +1065,9 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1031,8 +1075,9 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1040,8 +1085,9 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1049,8 +1095,9 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1058,8 +1105,9 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1067,8 +1115,9 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1076,8 +1125,9 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1085,8 +1135,9 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1094,8 +1145,9 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1103,8 +1155,9 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1112,8 +1165,9 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1121,8 +1175,9 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1130,8 +1185,9 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1139,8 +1195,9 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1148,8 +1205,9 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1157,8 +1215,9 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1166,8 +1225,9 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1175,8 +1235,9 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1184,8 +1245,9 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1193,8 +1255,9 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A41" s="2"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1202,8 +1265,9 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1211,8 +1275,9 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A43" s="2"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1220,8 +1285,9 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A44" s="2"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1229,8 +1295,9 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A45" s="2"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1238,8 +1305,9 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1247,8 +1315,9 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A47" s="2"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1256,8 +1325,9 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A48" s="2"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1265,8 +1335,9 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="2"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1274,8 +1345,9 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" s="2"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1283,8 +1355,9 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" s="2"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1292,8 +1365,9 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" s="2"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1301,8 +1375,9 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A53" s="2"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1310,8 +1385,9 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" s="2"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1319,8 +1395,9 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="2"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1328,8 +1405,9 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A56" s="2"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1337,8 +1415,9 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="2"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1346,8 +1425,9 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" s="2"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1355,8 +1435,9 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" s="2"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1364,8 +1445,9 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" s="2"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1373,8 +1455,9 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" s="2"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1382,8 +1465,9 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" s="2"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1391,8 +1475,9 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="2"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1400,8 +1485,9 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" s="2"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1409,8 +1495,9 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" s="2"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1418,8 +1505,9 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="2"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1427,8 +1515,9 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A67" s="2"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1436,8 +1525,9 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" s="2"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1445,8 +1535,9 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" s="2"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1454,8 +1545,9 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A70" s="2"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1463,8 +1555,9 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" s="2"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1472,8 +1565,9 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" s="2"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1481,8 +1575,9 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" s="2"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1490,8 +1585,9 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" s="2"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1499,8 +1595,9 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" s="2"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1508,8 +1605,9 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="2"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1517,8 +1615,9 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" s="2"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1526,8 +1625,9 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" s="2"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1535,8 +1635,9 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" s="2"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1544,8 +1645,9 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" s="2"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1553,8 +1655,9 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" s="2"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1562,8 +1665,9 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" s="2"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1571,8 +1675,9 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A83" s="2"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1580,8 +1685,9 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" s="2"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1589,8 +1695,9 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" s="2"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1598,8 +1705,9 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A86" s="2"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1607,8 +1715,9 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A87" s="2"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1616,8 +1725,9 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A88" s="2"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1625,8 +1735,9 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A89" s="2"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1634,8 +1745,9 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A90" s="2"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1643,8 +1755,9 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A91" s="2"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1652,8 +1765,9 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A92" s="2"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1661,8 +1775,9 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A93" s="2"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1670,8 +1785,9 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A94" s="2"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1679,8 +1795,9 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A95" s="2"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1688,8 +1805,9 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A96" s="2"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1697,8 +1815,9 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A97" s="2"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1706,8 +1825,9 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A98" s="2"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1715,8 +1835,9 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A99" s="2"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1724,8 +1845,9 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A100" s="2"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1733,8 +1855,9 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A101" s="2"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1742,8 +1865,9 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A102" s="2"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1751,8 +1875,9 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H102" s="1"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A103" s="2"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -1760,8 +1885,9 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H103" s="1"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A104" s="2"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -1769,8 +1895,9 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H104" s="1"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A105" s="2"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -1778,8 +1905,9 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H105" s="1"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A106" s="2"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -1787,8 +1915,9 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H106" s="1"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A107" s="2"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -1796,8 +1925,9 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H107" s="1"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A108" s="2"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -1805,8 +1935,9 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H108" s="1"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A109" s="2"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1814,8 +1945,9 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H109" s="1"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A110" s="2"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -1823,8 +1955,9 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H110" s="1"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A111" s="2"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -1832,8 +1965,9 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H111" s="1"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A112" s="2"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -1841,8 +1975,9 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H112" s="1"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A113" s="2"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -1850,8 +1985,9 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H113" s="1"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A114" s="2"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -1859,8 +1995,9 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H114" s="1"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A115" s="2"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -1868,8 +2005,9 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H115" s="1"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A116" s="2"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -1877,8 +2015,9 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H116" s="1"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A117" s="2"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -1886,8 +2025,9 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H117" s="1"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A118" s="2"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -1895,8 +2035,9 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H118" s="1"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A119" s="2"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -1904,8 +2045,9 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H119" s="1"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A120" s="2"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -1913,8 +2055,9 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H120" s="1"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A121" s="2"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -1922,8 +2065,9 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H121" s="1"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A122" s="2"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -1931,8 +2075,9 @@
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H122" s="1"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A123" s="2"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -1940,8 +2085,9 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H123" s="1"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A124" s="2"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -1949,8 +2095,9 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H124" s="1"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A125" s="2"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -1958,8 +2105,9 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H125" s="1"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A126" s="2"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -1967,8 +2115,9 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H126" s="1"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A127" s="2"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -1976,8 +2125,9 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H127" s="1"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A128" s="2"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -1985,8 +2135,9 @@
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H128" s="1"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A129" s="2"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -1994,8 +2145,9 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H129" s="1"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A130" s="2"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -2003,8 +2155,9 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H130" s="1"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A131" s="2"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -2012,8 +2165,9 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H131" s="1"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A132" s="2"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -2021,8 +2175,9 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H132" s="1"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A133" s="2"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -2030,8 +2185,9 @@
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H133" s="1"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A134" s="2"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -2039,8 +2195,9 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H134" s="1"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A135" s="2"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -2048,8 +2205,9 @@
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H135" s="1"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A136" s="2"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -2057,8 +2215,9 @@
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H136" s="1"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A137" s="2"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -2066,8 +2225,9 @@
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H137" s="1"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A138" s="2"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -2075,8 +2235,9 @@
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H138" s="1"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A139" s="2"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -2084,8 +2245,9 @@
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H139" s="1"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A140" s="2"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -2093,8 +2255,9 @@
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H140" s="1"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A141" s="2"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -2102,8 +2265,9 @@
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H141" s="1"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A142" s="2"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -2111,8 +2275,9 @@
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H142" s="1"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A143" s="2"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -2120,8 +2285,9 @@
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A144" s="2"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -2129,8 +2295,9 @@
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H144" s="1"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A145" s="2"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -2138,8 +2305,9 @@
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H145" s="1"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A146" s="2"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -2147,8 +2315,9 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H146" s="1"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A147" s="2"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -2156,8 +2325,9 @@
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H147" s="1"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A148" s="2"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -2165,8 +2335,9 @@
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H148" s="1"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A149" s="2"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -2174,8 +2345,9 @@
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H149" s="1"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A150" s="2"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -2183,8 +2355,9 @@
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H150" s="1"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A151" s="2"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -2192,8 +2365,9 @@
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H151" s="1"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A152" s="2"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -2201,8 +2375,9 @@
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H152" s="1"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A153" s="2"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -2210,8 +2385,9 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H153" s="1"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A154" s="2"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -2219,8 +2395,9 @@
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H154" s="1"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A155" s="2"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -2228,8 +2405,9 @@
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H155" s="1"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A156" s="2"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -2237,8 +2415,9 @@
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H156" s="1"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A157" s="2"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -2246,8 +2425,9 @@
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H157" s="1"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A158" s="2"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -2255,8 +2435,9 @@
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H158" s="1"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A159" s="2"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -2264,8 +2445,9 @@
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H159" s="1"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A160" s="2"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -2273,8 +2455,9 @@
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H160" s="1"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A161" s="2"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -2282,8 +2465,9 @@
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H161" s="1"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A162" s="2"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -2291,8 +2475,9 @@
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H162" s="1"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A163" s="2"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -2300,8 +2485,9 @@
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H163" s="1"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A164" s="2"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -2309,8 +2495,9 @@
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H164" s="1"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A165" s="2"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -2318,8 +2505,9 @@
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H165" s="1"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A166" s="2"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -2327,8 +2515,9 @@
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H166" s="1"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A167" s="2"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -2336,8 +2525,9 @@
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H167" s="1"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A168" s="2"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -2345,8 +2535,9 @@
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H168" s="1"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A169" s="2"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -2354,8 +2545,9 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H169" s="1"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A170" s="2"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -2363,11 +2555,12 @@
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:G170" xr:uid="{0295D16A-4CB5-4B88-A4AA-73AB329C4979}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:H170" xr:uid="{0295D16A-4CB5-4B88-A4AA-73AB329C4979}">
       <formula1>"〇,×,△"</formula1>
     </dataValidation>
   </dataValidations>
